--- a/Instances/02_Uniform.xlsx
+++ b/Instances/02_Uniform.xlsx
@@ -1212,13 +1212,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>0.032</v>
       </c>
       <c r="E2" t="n">
-        <v>0.42</v>
+        <v>0.001167641126864694</v>
       </c>
       <c r="F2" t="n">
         <v>0.32</v>
@@ -1247,7 +1247,7 @@
         <v>0.03702</v>
       </c>
       <c r="E3" t="n">
-        <v>0.12</v>
+        <v>0.0002391702806335349</v>
       </c>
       <c r="F3" t="n">
         <v>0.3702</v>
@@ -1276,7 +1276,7 @@
         <v>0.03700000000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1</v>
+        <v>0.0002323897257048815</v>
       </c>
       <c r="F4" t="n">
         <v>0.3700000000000001</v>
@@ -1305,7 +1305,7 @@
         <v>0.03694</v>
       </c>
       <c r="E5" t="n">
-        <v>0.11</v>
+        <v>0.0001860674890883271</v>
       </c>
       <c r="F5" t="n">
         <v>0.3694</v>
@@ -1334,7 +1334,7 @@
         <v>0.03694</v>
       </c>
       <c r="E6" t="n">
-        <v>0.17</v>
+        <v>0.0004121122984920379</v>
       </c>
       <c r="F6" t="n">
         <v>0.3694</v>
@@ -1363,7 +1363,7 @@
         <v>0.03702</v>
       </c>
       <c r="E7" t="n">
-        <v>0.12</v>
+        <v>0.0001924056394965738</v>
       </c>
       <c r="F7" t="n">
         <v>0.3702</v>
@@ -1392,7 +1392,7 @@
         <v>0.03700000000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>0.09</v>
+        <v>0.0002081440477939096</v>
       </c>
       <c r="F8" t="n">
         <v>0.3700000000000001</v>
@@ -1421,7 +1421,7 @@
         <v>0.07388</v>
       </c>
       <c r="E9" t="n">
-        <v>0.09</v>
+        <v>0.0002011670344507731</v>
       </c>
       <c r="F9" t="n">
         <v>0.7388</v>
@@ -1450,7 +1450,7 @@
         <v>0.03694</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1</v>
+        <v>0.0002300306398973613</v>
       </c>
       <c r="F10" t="n">
         <v>0.3694</v>
@@ -1479,7 +1479,7 @@
         <v>0.03222</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1</v>
+        <v>0.0002183858664309655</v>
       </c>
       <c r="F11" t="n">
         <v>0.3222</v>
@@ -1508,7 +1508,7 @@
         <v>0.0322</v>
       </c>
       <c r="E12" t="n">
-        <v>0.09</v>
+        <v>0.0002274443599951169</v>
       </c>
       <c r="F12" t="n">
         <v>0.322</v>
@@ -1537,7 +1537,7 @@
         <v>0.03214</v>
       </c>
       <c r="E13" t="n">
-        <v>0.09</v>
+        <v>0.0001822159142900283</v>
       </c>
       <c r="F13" t="n">
         <v>0.3214</v>
@@ -1566,7 +1566,7 @@
         <v>0.03214</v>
       </c>
       <c r="E14" t="n">
-        <v>0.24</v>
+        <v>0.0004624108602264029</v>
       </c>
       <c r="F14" t="n">
         <v>0.3214</v>
@@ -2442,7 +2442,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2450,7 +2450,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2458,7 +2458,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4.5</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2466,7 +2466,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5.4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2474,7 +2474,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2482,7 +2482,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2490,7 +2490,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1.8</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2514,7 +2514,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2522,7 +2522,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>2.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2645,7 +2645,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -2692,7 +2692,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -2739,7 +2739,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -2833,7 +2833,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -2880,7 +2880,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -2927,7 +2927,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -3068,7 +3068,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -3115,7 +3115,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>

--- a/Instances/02_Uniform.xlsx
+++ b/Instances/02_Uniform.xlsx
@@ -1212,13 +1212,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>0.032</v>
       </c>
       <c r="E2" t="n">
-        <v>0.001167641126864694</v>
+        <v>0.1718774792771035</v>
       </c>
       <c r="F2" t="n">
         <v>0.32</v>
@@ -1247,7 +1247,7 @@
         <v>0.03702</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0002391702806335349</v>
+        <v>0.03633631122614434</v>
       </c>
       <c r="F3" t="n">
         <v>0.3702</v>
@@ -1276,7 +1276,7 @@
         <v>0.03700000000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0002323897257048815</v>
+        <v>0.03785501838063942</v>
       </c>
       <c r="F4" t="n">
         <v>0.3700000000000001</v>
@@ -1305,7 +1305,7 @@
         <v>0.03694</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0001860674890883271</v>
+        <v>0.03087467556044467</v>
       </c>
       <c r="F5" t="n">
         <v>0.3694</v>
@@ -1334,7 +1334,7 @@
         <v>0.03694</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0004121122984920379</v>
+        <v>0.06954188495572329</v>
       </c>
       <c r="F6" t="n">
         <v>0.3694</v>
@@ -1363,7 +1363,7 @@
         <v>0.03702</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0001924056394965738</v>
+        <v>0.04294493738960466</v>
       </c>
       <c r="F7" t="n">
         <v>0.3702</v>
@@ -1392,7 +1392,7 @@
         <v>0.03700000000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0002081440477939096</v>
+        <v>0.03106172363933009</v>
       </c>
       <c r="F8" t="n">
         <v>0.3700000000000001</v>
@@ -1421,7 +1421,7 @@
         <v>0.07388</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0002011670344507731</v>
+        <v>0.07392661309972601</v>
       </c>
       <c r="F9" t="n">
         <v>0.7388</v>
@@ -1450,7 +1450,7 @@
         <v>0.03694</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0002300306398973613</v>
+        <v>0.03956264643868266</v>
       </c>
       <c r="F10" t="n">
         <v>0.3694</v>
@@ -1479,7 +1479,7 @@
         <v>0.03222</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0002183858664309655</v>
+        <v>0.03045513123734471</v>
       </c>
       <c r="F11" t="n">
         <v>0.3222</v>
@@ -1508,7 +1508,7 @@
         <v>0.0322</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0002274443599951169</v>
+        <v>0.02757032827410544</v>
       </c>
       <c r="F12" t="n">
         <v>0.322</v>
@@ -1537,7 +1537,7 @@
         <v>0.03214</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0001822159142900283</v>
+        <v>0.03738015424385555</v>
       </c>
       <c r="F13" t="n">
         <v>0.3214</v>
@@ -1560,13 +1560,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0.03214</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0004624108602264029</v>
+        <v>0.07215978257699267</v>
       </c>
       <c r="F14" t="n">
         <v>0.3214</v>
@@ -2434,7 +2434,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>18</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2442,7 +2442,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2450,7 +2450,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4.5</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2482,7 +2482,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2490,7 +2490,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4.5</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2498,7 +2498,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2506,7 +2506,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2514,7 +2514,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2522,7 +2522,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2598,7 +2598,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -2645,7 +2645,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -2692,7 +2692,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -2880,7 +2880,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -2927,7 +2927,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -2974,7 +2974,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -3021,7 +3021,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -3068,7 +3068,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -3115,7 +3115,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>

--- a/Instances/02_Uniform.xlsx
+++ b/Instances/02_Uniform.xlsx
@@ -1212,13 +1212,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>0.032</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1718774792771035</v>
+        <v>0.00885356414629105</v>
       </c>
       <c r="F2" t="n">
         <v>0.32</v>
@@ -1247,7 +1247,7 @@
         <v>0.03702</v>
       </c>
       <c r="E3" t="n">
-        <v>0.03633631122614434</v>
+        <v>0.00254304966434807</v>
       </c>
       <c r="F3" t="n">
         <v>0.3702</v>
@@ -1276,7 +1276,7 @@
         <v>0.03700000000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>0.03785501838063942</v>
+        <v>0.002647822045587874</v>
       </c>
       <c r="F4" t="n">
         <v>0.3700000000000001</v>
@@ -1305,7 +1305,7 @@
         <v>0.03694</v>
       </c>
       <c r="E5" t="n">
-        <v>0.03087467556044467</v>
+        <v>0.002370391095140192</v>
       </c>
       <c r="F5" t="n">
         <v>0.3694</v>
@@ -1334,7 +1334,7 @@
         <v>0.03694</v>
       </c>
       <c r="E6" t="n">
-        <v>0.06954188495572329</v>
+        <v>0.003922026109385402</v>
       </c>
       <c r="F6" t="n">
         <v>0.3694</v>
@@ -1363,7 +1363,7 @@
         <v>0.03702</v>
       </c>
       <c r="E7" t="n">
-        <v>0.04294493738960466</v>
+        <v>0.002717505950156277</v>
       </c>
       <c r="F7" t="n">
         <v>0.3702</v>
@@ -1392,7 +1392,7 @@
         <v>0.03700000000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>0.03106172363933009</v>
+        <v>0.002321047486821235</v>
       </c>
       <c r="F8" t="n">
         <v>0.3700000000000001</v>
@@ -1421,7 +1421,7 @@
         <v>0.07388</v>
       </c>
       <c r="E9" t="n">
-        <v>0.07392661309972601</v>
+        <v>0.005237931918047264</v>
       </c>
       <c r="F9" t="n">
         <v>0.7388</v>
@@ -1450,7 +1450,7 @@
         <v>0.03694</v>
       </c>
       <c r="E10" t="n">
-        <v>0.03956264643868266</v>
+        <v>0.002504325671186295</v>
       </c>
       <c r="F10" t="n">
         <v>0.3694</v>
@@ -1479,7 +1479,7 @@
         <v>0.03222</v>
       </c>
       <c r="E11" t="n">
-        <v>0.03045513123734471</v>
+        <v>0.002312076667617443</v>
       </c>
       <c r="F11" t="n">
         <v>0.3222</v>
@@ -1508,7 +1508,7 @@
         <v>0.0322</v>
       </c>
       <c r="E12" t="n">
-        <v>0.02757032827410544</v>
+        <v>0.00224721914517536</v>
       </c>
       <c r="F12" t="n">
         <v>0.322</v>
@@ -1537,7 +1537,7 @@
         <v>0.03214</v>
       </c>
       <c r="E13" t="n">
-        <v>0.03738015424385555</v>
+        <v>0.00185811333250129</v>
       </c>
       <c r="F13" t="n">
         <v>0.3214</v>
@@ -1566,7 +1566,7 @@
         <v>0.03214</v>
       </c>
       <c r="E14" t="n">
-        <v>0.07215978257699267</v>
+        <v>0.004668777527929049</v>
       </c>
       <c r="F14" t="n">
         <v>0.3214</v>
@@ -2442,7 +2442,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2450,7 +2450,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2458,7 +2458,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2466,7 +2466,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>9</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2474,7 +2474,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2482,7 +2482,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2490,7 +2490,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.9</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2498,7 +2498,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2506,7 +2506,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2514,7 +2514,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2522,7 +2522,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2530,7 +2530,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>5.4</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -2645,7 +2645,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -2692,7 +2692,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -2739,7 +2739,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -2833,7 +2833,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -2880,7 +2880,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -2927,7 +2927,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -2974,7 +2974,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -3021,7 +3021,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -3068,7 +3068,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -3115,7 +3115,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -3162,7 +3162,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Instances/02_Uniform.xlsx
+++ b/Instances/02_Uniform.xlsx
@@ -1212,13 +1212,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>0.032</v>
       </c>
       <c r="E2" t="n">
-        <v>0.00885356414629105</v>
+        <v>0.08342590267404364</v>
       </c>
       <c r="F2" t="n">
         <v>0.32</v>
@@ -1241,13 +1241,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>0.03702</v>
       </c>
       <c r="E3" t="n">
-        <v>0.00254304966434807</v>
+        <v>0.01717986095275471</v>
       </c>
       <c r="F3" t="n">
         <v>0.3702</v>
@@ -1270,13 +1270,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
         <v>0.03700000000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>0.002647822045587874</v>
+        <v>0.0210008997162189</v>
       </c>
       <c r="F4" t="n">
         <v>0.3700000000000001</v>
@@ -1299,13 +1299,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
         <v>0.03694</v>
       </c>
       <c r="E5" t="n">
-        <v>0.002370391095140192</v>
+        <v>0.01633747670780738</v>
       </c>
       <c r="F5" t="n">
         <v>0.3694</v>
@@ -1334,7 +1334,7 @@
         <v>0.03694</v>
       </c>
       <c r="E6" t="n">
-        <v>0.003922026109385402</v>
+        <v>0.03826893911620335</v>
       </c>
       <c r="F6" t="n">
         <v>0.3694</v>
@@ -1357,13 +1357,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>0.03702</v>
       </c>
       <c r="E7" t="n">
-        <v>0.002717505950156277</v>
+        <v>0.01696516313662934</v>
       </c>
       <c r="F7" t="n">
         <v>0.3702</v>
@@ -1386,13 +1386,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
         <v>0.03700000000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>0.002321047486821235</v>
+        <v>0.02010213974307689</v>
       </c>
       <c r="F8" t="n">
         <v>0.3700000000000001</v>
@@ -1415,13 +1415,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
         <v>0.07388</v>
       </c>
       <c r="E9" t="n">
-        <v>0.005237931918047264</v>
+        <v>0.04153735517290649</v>
       </c>
       <c r="F9" t="n">
         <v>0.7388</v>
@@ -1444,13 +1444,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
         <v>0.03694</v>
       </c>
       <c r="E10" t="n">
-        <v>0.002504325671186295</v>
+        <v>0.01569362021248952</v>
       </c>
       <c r="F10" t="n">
         <v>0.3694</v>
@@ -1473,13 +1473,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
         <v>0.03222</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002312076667617443</v>
+        <v>0.01589883166354468</v>
       </c>
       <c r="F11" t="n">
         <v>0.3222</v>
@@ -1502,13 +1502,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
         <v>0.0322</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00224721914517536</v>
+        <v>0.01487491336469454</v>
       </c>
       <c r="F12" t="n">
         <v>0.322</v>
@@ -1531,13 +1531,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
         <v>0.03214</v>
       </c>
       <c r="E13" t="n">
-        <v>0.00185811333250129</v>
+        <v>0.01506731847158345</v>
       </c>
       <c r="F13" t="n">
         <v>0.3214</v>
@@ -1560,13 +1560,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
         <v>0.03214</v>
       </c>
       <c r="E14" t="n">
-        <v>0.004668777527929049</v>
+        <v>0.0264734266041848</v>
       </c>
       <c r="F14" t="n">
         <v>0.3214</v>
@@ -2434,7 +2434,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>13.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2442,7 +2442,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.5</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2450,7 +2450,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2458,7 +2458,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2466,7 +2466,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5.4</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2482,7 +2482,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2498,7 +2498,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2506,7 +2506,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>2.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2514,7 +2514,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2522,7 +2522,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>3.6</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2530,7 +2530,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>9</v>
+        <v>5.4</v>
       </c>
     </row>
   </sheetData>
@@ -2598,7 +2598,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -2645,7 +2645,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -2692,7 +2692,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -2739,7 +2739,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -2880,7 +2880,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -2974,7 +2974,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -3021,7 +3021,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -3068,7 +3068,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -3115,7 +3115,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -3162,7 +3162,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Instances/02_Uniform.xlsx
+++ b/Instances/02_Uniform.xlsx
@@ -1218,7 +1218,7 @@
         <v>0.032</v>
       </c>
       <c r="E2" t="n">
-        <v>0.08342590267404364</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="F2" t="n">
         <v>0.32</v>
@@ -1241,13 +1241,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0.03702</v>
       </c>
       <c r="E3" t="n">
-        <v>0.01717986095275471</v>
+        <v>0.02570833333333333</v>
       </c>
       <c r="F3" t="n">
         <v>0.3702</v>
@@ -1270,13 +1270,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0.03700000000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0210008997162189</v>
+        <v>0.02569444444444444</v>
       </c>
       <c r="F4" t="n">
         <v>0.3700000000000001</v>
@@ -1299,13 +1299,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0.03694</v>
       </c>
       <c r="E5" t="n">
-        <v>0.01633747670780738</v>
+        <v>0.02565277777777777</v>
       </c>
       <c r="F5" t="n">
         <v>0.3694</v>
@@ -1328,13 +1328,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0.03694</v>
       </c>
       <c r="E6" t="n">
-        <v>0.03826893911620335</v>
+        <v>0.05130555555555555</v>
       </c>
       <c r="F6" t="n">
         <v>0.3694</v>
@@ -1363,7 +1363,7 @@
         <v>0.03702</v>
       </c>
       <c r="E7" t="n">
-        <v>0.01696516313662934</v>
+        <v>0.02570833333333333</v>
       </c>
       <c r="F7" t="n">
         <v>0.3702</v>
@@ -1392,7 +1392,7 @@
         <v>0.03700000000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>0.02010213974307689</v>
+        <v>0.02569444444444444</v>
       </c>
       <c r="F8" t="n">
         <v>0.3700000000000001</v>
@@ -1421,7 +1421,7 @@
         <v>0.07388</v>
       </c>
       <c r="E9" t="n">
-        <v>0.04153735517290649</v>
+        <v>0.05130555555555555</v>
       </c>
       <c r="F9" t="n">
         <v>0.7388</v>
@@ -1450,7 +1450,7 @@
         <v>0.03694</v>
       </c>
       <c r="E10" t="n">
-        <v>0.01569362021248952</v>
+        <v>0.02565277777777777</v>
       </c>
       <c r="F10" t="n">
         <v>0.3694</v>
@@ -1473,13 +1473,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0.03222</v>
       </c>
       <c r="E11" t="n">
-        <v>0.01589883166354468</v>
+        <v>0.022375</v>
       </c>
       <c r="F11" t="n">
         <v>0.3222</v>
@@ -1502,13 +1502,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0.0322</v>
       </c>
       <c r="E12" t="n">
-        <v>0.01487491336469454</v>
+        <v>0.02236111111111111</v>
       </c>
       <c r="F12" t="n">
         <v>0.322</v>
@@ -1531,13 +1531,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0.03214</v>
       </c>
       <c r="E13" t="n">
-        <v>0.01506731847158345</v>
+        <v>0.02231944444444444</v>
       </c>
       <c r="F13" t="n">
         <v>0.3214</v>
@@ -1560,13 +1560,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0.03214</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0264734266041848</v>
+        <v>0.04463888888888888</v>
       </c>
       <c r="F14" t="n">
         <v>0.3214</v>
@@ -2434,7 +2434,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4.5</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2442,7 +2442,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2450,7 +2450,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2458,7 +2458,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2.7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2466,7 +2466,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>7.2</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2474,7 +2474,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1.8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2482,7 +2482,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>2.7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2490,7 +2490,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>2.7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2498,7 +2498,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3.6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2506,7 +2506,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2514,7 +2514,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>3.6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2522,7 +2522,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2530,7 +2530,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>5.4</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2598,7 +2598,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -2692,7 +2692,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -2739,7 +2739,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -2974,7 +2974,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -3021,7 +3021,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -3115,7 +3115,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -3162,7 +3162,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Instances/02_Uniform.xlsx
+++ b/Instances/02_Uniform.xlsx
@@ -1218,7 +1218,7 @@
         <v>0.032</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.06</v>
       </c>
       <c r="F2" t="n">
         <v>0.32</v>
@@ -1247,7 +1247,7 @@
         <v>0.03702</v>
       </c>
       <c r="E3" t="n">
-        <v>0.02570833333333333</v>
+        <v>0.0138825</v>
       </c>
       <c r="F3" t="n">
         <v>0.3702</v>
@@ -1276,7 +1276,7 @@
         <v>0.03700000000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>0.02569444444444444</v>
+        <v>0.013875</v>
       </c>
       <c r="F4" t="n">
         <v>0.3700000000000001</v>
@@ -1305,7 +1305,7 @@
         <v>0.03694</v>
       </c>
       <c r="E5" t="n">
-        <v>0.02565277777777777</v>
+        <v>0.0138525</v>
       </c>
       <c r="F5" t="n">
         <v>0.3694</v>
@@ -1334,7 +1334,7 @@
         <v>0.03694</v>
       </c>
       <c r="E6" t="n">
-        <v>0.05130555555555555</v>
+        <v>0.027705</v>
       </c>
       <c r="F6" t="n">
         <v>0.3694</v>
@@ -1363,7 +1363,7 @@
         <v>0.03702</v>
       </c>
       <c r="E7" t="n">
-        <v>0.02570833333333333</v>
+        <v>0.0138825</v>
       </c>
       <c r="F7" t="n">
         <v>0.3702</v>
@@ -1392,7 +1392,7 @@
         <v>0.03700000000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>0.02569444444444444</v>
+        <v>0.013875</v>
       </c>
       <c r="F8" t="n">
         <v>0.3700000000000001</v>
@@ -1421,7 +1421,7 @@
         <v>0.07388</v>
       </c>
       <c r="E9" t="n">
-        <v>0.05130555555555555</v>
+        <v>0.027705</v>
       </c>
       <c r="F9" t="n">
         <v>0.7388</v>
@@ -1450,7 +1450,7 @@
         <v>0.03694</v>
       </c>
       <c r="E10" t="n">
-        <v>0.02565277777777777</v>
+        <v>0.0138525</v>
       </c>
       <c r="F10" t="n">
         <v>0.3694</v>
@@ -1479,7 +1479,7 @@
         <v>0.03222</v>
       </c>
       <c r="E11" t="n">
-        <v>0.022375</v>
+        <v>0.0120825</v>
       </c>
       <c r="F11" t="n">
         <v>0.3222</v>
@@ -1508,7 +1508,7 @@
         <v>0.0322</v>
       </c>
       <c r="E12" t="n">
-        <v>0.02236111111111111</v>
+        <v>0.012075</v>
       </c>
       <c r="F12" t="n">
         <v>0.322</v>
@@ -1537,7 +1537,7 @@
         <v>0.03214</v>
       </c>
       <c r="E13" t="n">
-        <v>0.02231944444444444</v>
+        <v>0.0120525</v>
       </c>
       <c r="F13" t="n">
         <v>0.3214</v>
@@ -1566,7 +1566,7 @@
         <v>0.03214</v>
       </c>
       <c r="E14" t="n">
-        <v>0.04463888888888888</v>
+        <v>0.024105</v>
       </c>
       <c r="F14" t="n">
         <v>0.3214</v>
@@ -2442,7 +2442,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2450,7 +2450,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2458,7 +2458,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2474,7 +2474,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2482,7 +2482,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2490,7 +2490,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2498,7 +2498,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2506,7 +2506,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2514,7 +2514,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2522,7 +2522,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2645,7 +2645,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -2692,7 +2692,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -2739,7 +2739,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -2833,7 +2833,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -2880,7 +2880,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -2927,7 +2927,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -2974,7 +2974,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -3021,7 +3021,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -3068,7 +3068,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -3115,7 +3115,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
